--- a/biology/Biochimie/Albumine_de_sérum_bovin/Albumine_de_sérum_bovin.xlsx
+++ b/biology/Biochimie/Albumine_de_sérum_bovin/Albumine_de_sérum_bovin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albumine_de_s%C3%A9rum_bovin</t>
+          <t>Albumine_de_sérum_bovin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'albumine de sérum bovin ou (ASB) (en anglais : bovine serum albumin), est une protéine extraite du sérum de bovin largement utilisée en laboratoire de biologie. Cette albumine peut être utilisée comme agent diluant ou bloquant dans de nombreuses manipulations telles que l'ELISA (Enzyme-Linked Immunosorbent Assay), l'immunohistochimie et le Western blot. 
 Elle est également utilisée comme nutriment dans les cultures de cellules eucaryotes et microbiennes. Dans la technique de digestion par restriction enzymatique, l’ASB sert à la stabilisation de certaines enzymes de restriction pendant la digestion de l'ADN et évite l'adhésion de l'enzyme aux matériels de laboratoire. Elle a l'avantage de ne pas interférer avec les autres protéines, qui ne nécessitent pas sa présence.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albumine_de_s%C3%A9rum_bovin</t>
+          <t>Albumine_de_sérum_bovin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nombres d'acides aminés : 583
 Masse moléculaire : 66,430 kDa
